--- a/Control Signal 真值.xlsx
+++ b/Control Signal 真值.xlsx
@@ -5,16 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youzq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\youzq\Pipeline\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="8230"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6960"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,14 +29,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="69">
   <si>
     <t>PCSrc[1:0]</t>
   </si>
   <si>
-    <t>Branch</t>
-  </si>
-  <si>
     <t>RegWrite</t>
   </si>
   <si>
@@ -254,6 +251,19 @@
   </si>
   <si>
     <t>funct/RegimmFunct</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ori </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Branch
+[2:0]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,7 +447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -514,6 +524,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -830,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34:J34"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -854,51 +873,51 @@
     <row r="1" spans="1:14" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7"/>
       <c r="B1" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="F1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="3">
@@ -937,10 +956,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="3">
@@ -953,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3" s="3">
         <v>0</v>
@@ -962,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="3">
         <v>0</v>
@@ -979,10 +998,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="3">
@@ -1013,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N4" s="4">
         <v>1</v>
@@ -1021,7 +1040,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -1055,15 +1074,15 @@
         <v>0</v>
       </c>
       <c r="M5" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -1097,15 +1116,15 @@
         <v>0</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -1139,15 +1158,15 @@
         <v>0</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>0</v>
@@ -1181,18 +1200,18 @@
         <v>0</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
@@ -1231,10 +1250,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3">
@@ -1273,7 +1292,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -1307,15 +1326,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1">
         <v>0</v>
@@ -1349,15 +1368,15 @@
         <v>0</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>0</v>
@@ -1391,15 +1410,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N13" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
@@ -1433,18 +1452,18 @@
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="3">
@@ -1483,7 +1502,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -1519,21 +1538,21 @@
         <v>0</v>
       </c>
       <c r="M16" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="16">
         <v>0</v>
@@ -1563,21 +1582,21 @@
         <v>0</v>
       </c>
       <c r="M17" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="1">
         <v>0</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="16">
         <v>0</v>
@@ -1607,15 +1626,15 @@
         <v>0</v>
       </c>
       <c r="M18" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -1649,15 +1668,15 @@
         <v>0</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N19" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1">
         <v>0</v>
@@ -1691,18 +1710,18 @@
         <v>0</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="3">
@@ -1741,10 +1760,10 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="3">
@@ -1783,10 +1802,10 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="3">
@@ -1799,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H23" s="3">
         <v>0</v>
@@ -1808,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K23" s="3">
         <v>0</v>
@@ -1825,10 +1844,10 @@
     </row>
     <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="20">
         <v>0</v>
@@ -1840,7 +1859,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" s="20">
         <v>0</v>
@@ -1849,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="J24" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K24" s="20">
         <v>0</v>
@@ -1866,10 +1885,10 @@
     </row>
     <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B25" s="23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
@@ -1881,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H25" s="20">
         <v>0</v>
@@ -1890,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K25" s="20">
         <v>0</v>
@@ -1907,10 +1926,10 @@
     </row>
     <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
@@ -1922,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H26" s="20">
         <v>0</v>
@@ -1931,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" s="20">
         <v>0</v>
@@ -1948,13 +1967,13 @@
     </row>
     <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="24" t="s">
         <v>61</v>
-      </c>
-      <c r="C27" s="24" t="s">
-        <v>62</v>
       </c>
       <c r="D27" s="20">
         <v>0</v>
@@ -1966,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H27" s="20">
         <v>0</v>
@@ -1975,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K27" s="20">
         <v>0</v>
@@ -1992,13 +2011,13 @@
     </row>
     <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D28" s="20">
         <v>0</v>
@@ -2010,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H28" s="20">
         <v>0</v>
@@ -2019,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" s="20">
         <v>0</v>
@@ -2036,13 +2055,13 @@
     </row>
     <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B29" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D29" s="20">
         <v>0</v>
@@ -2080,13 +2099,13 @@
     </row>
     <row r="30" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B30" s="23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D30" s="20">
         <v>0</v>
@@ -2124,23 +2143,23 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F31" s="3">
         <v>0</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="3">
         <v>0</v>
@@ -2149,34 +2168,34 @@
         <v>0</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M31" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="3">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -2194,39 +2213,39 @@
         <v>2</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="3">
         <v>2</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H33" s="3">
         <v>0</v>
@@ -2235,36 +2254,36 @@
         <v>0</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" s="3">
         <v>2</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F34" s="25">
         <v>1</v>
@@ -2282,16 +2301,57 @@
         <v>2</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M34" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="27">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="27">
+        <v>1</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0</v>
+      </c>
+      <c r="H35" s="27">
+        <v>0</v>
+      </c>
+      <c r="I35" s="27">
+        <v>0</v>
+      </c>
+      <c r="J35" s="27">
+        <v>0</v>
+      </c>
+      <c r="K35" s="27">
+        <v>0</v>
+      </c>
+      <c r="L35" s="27">
+        <v>1</v>
+      </c>
+      <c r="M35" s="27">
+        <v>0</v>
+      </c>
+      <c r="N35" s="27">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
